--- a/Code/Results/Cases/Case_4_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_114/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.17389813838671</v>
+        <v>24.19710677992798</v>
       </c>
       <c r="C2">
-        <v>10.88547985786997</v>
+        <v>5.768701190967377</v>
       </c>
       <c r="D2">
-        <v>8.526161012443763</v>
+        <v>13.11272690450736</v>
       </c>
       <c r="E2">
-        <v>7.933422437088054</v>
+        <v>12.89901885417056</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>68.76499296626876</v>
+        <v>74.98116606619399</v>
       </c>
       <c r="H2">
-        <v>19.51541823465282</v>
+        <v>25.53329367688651</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.324706521316788</v>
+        <v>8.002234214538847</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.572388349363562</v>
+        <v>12.83889863573922</v>
       </c>
       <c r="M2">
-        <v>13.86208102725817</v>
+        <v>21.00151155723734</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.97010675427993</v>
+        <v>24.03659297152049</v>
       </c>
       <c r="C3">
-        <v>10.19622824136397</v>
+        <v>5.399071634615252</v>
       </c>
       <c r="D3">
-        <v>8.412852310144077</v>
+        <v>13.12359722675609</v>
       </c>
       <c r="E3">
-        <v>7.966983202183597</v>
+        <v>12.91542593553118</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>66.2923848166906</v>
+        <v>74.53489644095556</v>
       </c>
       <c r="H3">
-        <v>19.11004091060602</v>
+        <v>25.5012434444105</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.290301462302364</v>
+        <v>7.991239293620393</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.501536565177839</v>
+        <v>12.85993750338197</v>
       </c>
       <c r="M3">
-        <v>13.42556864575043</v>
+        <v>21.00049311760199</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.21249732879144</v>
+        <v>23.94490742896246</v>
       </c>
       <c r="C4">
-        <v>9.753152582171259</v>
+        <v>5.15827362218923</v>
       </c>
       <c r="D4">
-        <v>8.347699358721057</v>
+        <v>13.13222070354806</v>
       </c>
       <c r="E4">
-        <v>7.989076498459095</v>
+        <v>12.92619718920119</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>64.78733330576452</v>
+        <v>74.27462527788403</v>
       </c>
       <c r="H4">
-        <v>18.87067788369631</v>
+        <v>25.48559282765626</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.269054612186267</v>
+        <v>7.984259244787004</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.462131293760756</v>
+        <v>12.87473221582053</v>
       </c>
       <c r="M4">
-        <v>13.16156237233001</v>
+        <v>21.00435956371689</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.89940872996407</v>
+        <v>23.90930913182861</v>
       </c>
       <c r="C5">
-        <v>9.567548469841796</v>
+        <v>5.05666391490004</v>
       </c>
       <c r="D5">
-        <v>8.322237758405429</v>
+        <v>13.13622469639823</v>
       </c>
       <c r="E5">
-        <v>7.9984484553744</v>
+        <v>12.93076217482463</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>64.17768668486134</v>
+        <v>74.17207579934413</v>
       </c>
       <c r="H5">
-        <v>18.77549733085075</v>
+        <v>25.48022837630806</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.260357320096724</v>
+        <v>7.981357030795324</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.447081210561178</v>
+        <v>12.88123317578185</v>
       </c>
       <c r="M5">
-        <v>13.05508895875576</v>
+        <v>21.0070659709687</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.84716752971458</v>
+        <v>23.90350562949735</v>
       </c>
       <c r="C6">
-        <v>9.536423044543529</v>
+        <v>5.039581367455261</v>
       </c>
       <c r="D6">
-        <v>8.318074977645958</v>
+        <v>13.13691913320627</v>
       </c>
       <c r="E6">
-        <v>8.000026793788049</v>
+        <v>12.93153080219508</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>64.07668927981156</v>
+        <v>74.15526130152659</v>
       </c>
       <c r="H6">
-        <v>18.75983425713084</v>
+        <v>25.47939881192441</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.258910554722477</v>
+        <v>7.980871625100495</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.444642369885089</v>
+        <v>12.88234116366457</v>
       </c>
       <c r="M6">
-        <v>13.03747940337137</v>
+        <v>21.00758369260461</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.20829210410129</v>
+        <v>23.94442014833068</v>
       </c>
       <c r="C7">
-        <v>9.750669951247048</v>
+        <v>5.156917379068691</v>
       </c>
       <c r="D7">
-        <v>8.347351596075333</v>
+        <v>13.13227271978826</v>
       </c>
       <c r="E7">
-        <v>7.989201405238969</v>
+        <v>12.92625804276062</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>64.77909598552316</v>
+        <v>74.27322796314641</v>
       </c>
       <c r="H7">
-        <v>18.86938473059221</v>
+        <v>25.48551637812906</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.268937485962723</v>
+        <v>7.984220338715878</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.461924271963766</v>
+        <v>12.87481797890877</v>
       </c>
       <c r="M7">
-        <v>13.16012179354724</v>
+        <v>21.00439148345496</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.76281448006479</v>
+        <v>24.14035857147844</v>
       </c>
       <c r="C8">
-        <v>10.65191544371763</v>
+        <v>5.644124698772803</v>
       </c>
       <c r="D8">
-        <v>8.48616142106847</v>
+        <v>13.1160703413765</v>
       </c>
       <c r="E8">
-        <v>7.944682347250834</v>
+        <v>12.9045314756711</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>67.90990991730635</v>
+        <v>74.82447708463465</v>
       </c>
       <c r="H8">
-        <v>19.37364082248118</v>
+        <v>25.5214070452451</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.312863694500669</v>
+        <v>7.998490614741055</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.547094422860032</v>
+        <v>12.84576336657354</v>
       </c>
       <c r="M8">
-        <v>13.71079625795792</v>
+        <v>21.00022907388324</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.65601193452141</v>
+        <v>24.57735017718058</v>
       </c>
       <c r="C9">
-        <v>12.26465762330359</v>
+        <v>6.489866260906155</v>
       </c>
       <c r="D9">
-        <v>8.794481967849707</v>
+        <v>13.0997711687028</v>
       </c>
       <c r="E9">
-        <v>7.869438285065302</v>
+        <v>12.86744519551905</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>74.14191567739252</v>
+        <v>76.01169102866308</v>
       </c>
       <c r="H9">
-        <v>20.44013097277277</v>
+        <v>25.62371578607842</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.398459883953891</v>
+        <v>8.02466502767207</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.747679893688526</v>
+        <v>12.80367511915081</v>
       </c>
       <c r="M9">
-        <v>14.81871694621227</v>
+        <v>21.02762848448976</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.68096450432882</v>
+        <v>24.92802262914608</v>
       </c>
       <c r="C10">
-        <v>13.36074689533048</v>
+        <v>7.044738213595683</v>
       </c>
       <c r="D10">
-        <v>9.044625781845534</v>
+        <v>13.09723774321103</v>
       </c>
       <c r="E10">
-        <v>7.821922329510797</v>
+        <v>12.84354506327334</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.76941767808529</v>
+        <v>76.94458816511697</v>
       </c>
       <c r="H10">
-        <v>21.27446359132496</v>
+        <v>25.71826697682717</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.461694337341469</v>
+        <v>8.042804822911041</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.917077047840132</v>
+        <v>12.78182325191669</v>
       </c>
       <c r="M10">
-        <v>15.64602198415249</v>
+        <v>21.06930239910744</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.66196142915332</v>
+        <v>25.09339176643983</v>
       </c>
       <c r="C11">
-        <v>13.84164451762892</v>
+        <v>7.28282652241221</v>
       </c>
       <c r="D11">
-        <v>9.163966457651011</v>
+        <v>13.09813508705647</v>
       </c>
       <c r="E11">
-        <v>7.80210335835361</v>
+        <v>12.83339537729845</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>80.88631225793512</v>
+        <v>77.38118393314826</v>
       </c>
       <c r="H11">
-        <v>21.666101457002</v>
+        <v>25.76546049787838</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.490715610383583</v>
+        <v>8.05082303326634</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.999311137661882</v>
+        <v>12.7738497592155</v>
       </c>
       <c r="M11">
-        <v>16.02491978609311</v>
+        <v>21.09289811898239</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.03136433546435</v>
+        <v>25.15680106452997</v>
       </c>
       <c r="C12">
-        <v>14.02135326971251</v>
+        <v>7.37093308997505</v>
       </c>
       <c r="D12">
-        <v>9.209996528592749</v>
+        <v>13.0987693780917</v>
       </c>
       <c r="E12">
-        <v>7.794867846038531</v>
+        <v>12.82965558807069</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>81.68991986200899</v>
+        <v>77.54817929754529</v>
       </c>
       <c r="H12">
-        <v>21.8162587155141</v>
+        <v>25.78392904531465</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.501759494421174</v>
+        <v>8.053825913671881</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.031232102984799</v>
+        <v>12.77111298228993</v>
       </c>
       <c r="M12">
-        <v>16.16877001147449</v>
+        <v>21.10249565311837</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.95201126574188</v>
+        <v>25.14311056948463</v>
       </c>
       <c r="C13">
-        <v>13.98275370698892</v>
+        <v>7.352048912156238</v>
       </c>
       <c r="D13">
-        <v>9.200045119362898</v>
+        <v>13.09861968044745</v>
       </c>
       <c r="E13">
-        <v>7.796413959925619</v>
+        <v>12.83045641122644</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>81.51675378846349</v>
+        <v>77.51214124144296</v>
       </c>
       <c r="H13">
-        <v>21.78383515786122</v>
+        <v>25.77992501377348</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.499378282278676</v>
+        <v>8.053180674434447</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.024321987026411</v>
+        <v>12.77168983142315</v>
       </c>
       <c r="M13">
-        <v>16.13777247296426</v>
+        <v>21.10039927385506</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.6924449537265</v>
+        <v>25.09859301215774</v>
       </c>
       <c r="C14">
-        <v>13.85647634825135</v>
+        <v>7.290116187795916</v>
       </c>
       <c r="D14">
-        <v>9.167736319464041</v>
+        <v>13.09818137061056</v>
       </c>
       <c r="E14">
-        <v>7.801502616855601</v>
+        <v>12.83308562607687</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>80.9523834648427</v>
+        <v>77.39488988438208</v>
       </c>
       <c r="H14">
-        <v>21.67841710649257</v>
+        <v>25.76696796873929</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.491623002911247</v>
+        <v>8.051070751350851</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.001921418746193</v>
+        <v>12.7736189405714</v>
       </c>
       <c r="M14">
-        <v>16.03674689441231</v>
+        <v>21.09367446791527</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.53284984158868</v>
+        <v>25.07142569059981</v>
       </c>
       <c r="C15">
-        <v>13.77882058490303</v>
+        <v>7.251913573798601</v>
       </c>
       <c r="D15">
-        <v>9.148056749778203</v>
+        <v>13.09795123382744</v>
       </c>
       <c r="E15">
-        <v>7.804655025022564</v>
+        <v>12.83470959098441</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>80.60696047818782</v>
+        <v>77.32328425743853</v>
       </c>
       <c r="H15">
-        <v>21.6140906063614</v>
+        <v>25.75910907389678</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.486880284390218</v>
+        <v>8.049774012178778</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.988303274732322</v>
+        <v>12.77483737179894</v>
       </c>
       <c r="M15">
-        <v>15.97491457403679</v>
+        <v>21.0896414406572</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.62175019469854</v>
+        <v>24.91732850519333</v>
       </c>
       <c r="C16">
-        <v>13.32897495326618</v>
+        <v>7.028890958034703</v>
       </c>
       <c r="D16">
-        <v>9.036941539521164</v>
+        <v>13.0972203264379</v>
       </c>
       <c r="E16">
-        <v>7.823254610736057</v>
+        <v>12.84422288976637</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.63133189777261</v>
+        <v>76.9162937588648</v>
       </c>
       <c r="H16">
-        <v>21.24912156792571</v>
+        <v>25.71526659376244</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.459804301889482</v>
+        <v>8.042276125587708</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.911809989669756</v>
+        <v>12.78238390043006</v>
       </c>
       <c r="M16">
-        <v>15.62131104834133</v>
+        <v>21.06785331315367</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.10039796586848</v>
+        <v>24.82425497241596</v>
       </c>
       <c r="C17">
-        <v>13.04857137407912</v>
+        <v>6.888409936568146</v>
       </c>
       <c r="D17">
-        <v>8.970223750355823</v>
+        <v>13.09729678729941</v>
       </c>
       <c r="E17">
-        <v>7.835132373664767</v>
+        <v>12.85024389978049</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.42252348342532</v>
+        <v>76.66968379211507</v>
       </c>
       <c r="H17">
-        <v>21.02839478965927</v>
+        <v>25.68943908880969</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.443271124446698</v>
+        <v>8.03761667958209</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.866233573546061</v>
+        <v>12.78751709831382</v>
       </c>
       <c r="M17">
-        <v>15.4050332434005</v>
+        <v>21.05567183465306</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.79848284892564</v>
+        <v>24.77127511988043</v>
       </c>
       <c r="C18">
-        <v>12.88561249219343</v>
+        <v>6.806260057885616</v>
       </c>
       <c r="D18">
-        <v>8.932368949651272</v>
+        <v>13.09753372755231</v>
       </c>
       <c r="E18">
-        <v>7.842132460018194</v>
+        <v>12.85377505413886</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.72833411159013</v>
+        <v>76.52899577834226</v>
       </c>
       <c r="H18">
-        <v>20.90256882039009</v>
+        <v>25.67497767028364</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.433784554867348</v>
+        <v>8.034914685446513</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.840503803795857</v>
+        <v>12.79065474243205</v>
       </c>
       <c r="M18">
-        <v>15.28087433729042</v>
+        <v>21.04910223854344</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.69590607846786</v>
+        <v>24.75343372483684</v>
       </c>
       <c r="C19">
-        <v>12.83014495601376</v>
+        <v>6.778213618895842</v>
       </c>
       <c r="D19">
-        <v>8.919640073409152</v>
+        <v>13.09764709923838</v>
       </c>
       <c r="E19">
-        <v>7.84453116229525</v>
+        <v>12.85498233346841</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.49347406687616</v>
+        <v>76.48156239771855</v>
       </c>
       <c r="H19">
-        <v>20.8601574298827</v>
+        <v>25.67014904105395</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.430576005202932</v>
+        <v>8.033996052571277</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.831874341857294</v>
+        <v>12.79174890353647</v>
       </c>
       <c r="M19">
-        <v>15.23887760030595</v>
+        <v>21.04695304902863</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.15610816714143</v>
+        <v>24.83410589553498</v>
       </c>
       <c r="C20">
-        <v>13.07859347530388</v>
+        <v>6.903503934240388</v>
       </c>
       <c r="D20">
-        <v>8.977271936060486</v>
+        <v>13.09726867868725</v>
       </c>
       <c r="E20">
-        <v>7.833850470168493</v>
+        <v>12.84959591397972</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.55108937629757</v>
+        <v>76.69581689781691</v>
       </c>
       <c r="H20">
-        <v>21.05177382676633</v>
+        <v>25.69214773232218</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.445028623808351</v>
+        <v>8.038114961736387</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.871034860446589</v>
+        <v>12.78695149842241</v>
       </c>
       <c r="M20">
-        <v>15.42803178923975</v>
+        <v>21.05692339107955</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.76881111128996</v>
+        <v>25.11164795294538</v>
       </c>
       <c r="C21">
-        <v>13.89363079315776</v>
+        <v>7.308362964880448</v>
       </c>
       <c r="D21">
-        <v>9.17720308548318</v>
+        <v>13.09830212333591</v>
       </c>
       <c r="E21">
-        <v>7.80000054289518</v>
+        <v>12.83231055003013</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>81.1180956465189</v>
+        <v>77.42928497455866</v>
       </c>
       <c r="H21">
-        <v>21.70932962105137</v>
+        <v>25.77075758863175</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.493899294860785</v>
+        <v>8.051691393231868</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.008479501226503</v>
+        <v>12.77304464667763</v>
       </c>
       <c r="M21">
-        <v>16.06641034529789</v>
+        <v>21.09563177009966</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.83556822416627</v>
+        <v>25.29760290042686</v>
       </c>
       <c r="C22">
-        <v>14.41242264981075</v>
+        <v>7.561003290439921</v>
       </c>
       <c r="D22">
-        <v>9.312780699032665</v>
+        <v>13.10069381944483</v>
       </c>
       <c r="E22">
-        <v>7.779455028690868</v>
+        <v>12.82161776620019</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>83.46118015692279</v>
+        <v>77.9183152123628</v>
       </c>
       <c r="H22">
-        <v>22.14995281469908</v>
+        <v>25.82561341779677</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.526164841486382</v>
+        <v>8.060369525771922</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.102879328666045</v>
+        <v>12.76560283958963</v>
       </c>
       <c r="M22">
-        <v>16.48580708792969</v>
+        <v>21.12478805018267</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.26861989932121</v>
+        <v>25.19795542024892</v>
       </c>
       <c r="C23">
-        <v>14.13674756397298</v>
+        <v>7.427255899641351</v>
       </c>
       <c r="D23">
-        <v>9.239955617236312</v>
+        <v>13.09926040793054</v>
       </c>
       <c r="E23">
-        <v>7.790272058595741</v>
+        <v>12.82726949784202</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>82.20940598159035</v>
+        <v>77.65645691583745</v>
       </c>
       <c r="H23">
-        <v>21.91374381201443</v>
+        <v>25.79601889799558</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.508907846476782</v>
+        <v>8.055755619014866</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.052064421977443</v>
+        <v>12.76942405531824</v>
       </c>
       <c r="M23">
-        <v>16.26175874997939</v>
+        <v>21.10887544843546</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.1309283906179</v>
+        <v>24.82965064033877</v>
       </c>
       <c r="C24">
-        <v>13.06502594882037</v>
+        <v>6.896684253895143</v>
       </c>
       <c r="D24">
-        <v>8.974083890178163</v>
+        <v>13.09728078547579</v>
       </c>
       <c r="E24">
-        <v>7.834429485681276</v>
+        <v>12.84988865156802</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.49296235478909</v>
+        <v>76.68399871461224</v>
       </c>
       <c r="H24">
-        <v>21.04120083073506</v>
+        <v>25.69092194838743</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.444234001769475</v>
+        <v>8.037889760700926</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.868862728916206</v>
+        <v>12.78720662520837</v>
       </c>
       <c r="M24">
-        <v>15.41763357931277</v>
+        <v>21.0563562112043</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.89083800330859</v>
+        <v>24.45373746117221</v>
       </c>
       <c r="C25">
-        <v>11.84441835976271</v>
+        <v>6.272778967503808</v>
       </c>
       <c r="D25">
-        <v>8.70705022666176</v>
+        <v>13.10252265563108</v>
       </c>
       <c r="E25">
-        <v>7.888463542475842</v>
+        <v>12.87688895818002</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>72.44730918685796</v>
+        <v>75.67955040661319</v>
       </c>
       <c r="H25">
-        <v>20.14299190367639</v>
+        <v>25.59262610758604</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.375297227717687</v>
+        <v>8.017776576460728</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.689668060557094</v>
+        <v>12.81346765113817</v>
       </c>
       <c r="M25">
-        <v>14.51645504375393</v>
+        <v>21.01642077594322</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_114/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.19710677992798</v>
+        <v>21.17389813838672</v>
       </c>
       <c r="C2">
-        <v>5.768701190967377</v>
+        <v>10.88547985787</v>
       </c>
       <c r="D2">
-        <v>13.11272690450736</v>
+        <v>8.526161012443835</v>
       </c>
       <c r="E2">
-        <v>12.89901885417056</v>
+        <v>7.933422437088054</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>74.98116606619399</v>
+        <v>68.76499296626892</v>
       </c>
       <c r="H2">
-        <v>25.53329367688651</v>
+        <v>19.51541823465283</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.002234214538847</v>
+        <v>5.32470652131672</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.83889863573922</v>
+        <v>7.572388349363586</v>
       </c>
       <c r="M2">
-        <v>21.00151155723734</v>
+        <v>13.86208102725818</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.03659297152049</v>
+        <v>19.97010675427989</v>
       </c>
       <c r="C3">
-        <v>5.399071634615252</v>
+        <v>10.19622824136406</v>
       </c>
       <c r="D3">
-        <v>13.12359722675609</v>
+        <v>8.412852310143892</v>
       </c>
       <c r="E3">
-        <v>12.91542593553118</v>
+        <v>7.966983202183477</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>74.53489644095556</v>
+        <v>66.2923848166907</v>
       </c>
       <c r="H3">
-        <v>25.5012434444105</v>
+        <v>19.11004091060606</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.991239293620393</v>
+        <v>5.290301462302399</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.85993750338197</v>
+        <v>7.501536565177841</v>
       </c>
       <c r="M3">
-        <v>21.00049311760199</v>
+        <v>13.4255686457504</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.94490742896246</v>
+        <v>19.21249732879149</v>
       </c>
       <c r="C4">
-        <v>5.15827362218923</v>
+        <v>9.753152582171175</v>
       </c>
       <c r="D4">
-        <v>13.13222070354806</v>
+        <v>8.347699358721123</v>
       </c>
       <c r="E4">
-        <v>12.92619718920119</v>
+        <v>7.9890764984591</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>74.27462527788403</v>
+        <v>64.78733330576483</v>
       </c>
       <c r="H4">
-        <v>25.48559282765626</v>
+        <v>18.87067788369645</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.984259244787004</v>
+        <v>5.269054612186302</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.87473221582053</v>
+        <v>7.462131293760832</v>
       </c>
       <c r="M4">
-        <v>21.00435956371689</v>
+        <v>13.16156237233005</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.90930913182861</v>
+        <v>18.89940872996399</v>
       </c>
       <c r="C5">
-        <v>5.05666391490004</v>
+        <v>9.567548469841856</v>
       </c>
       <c r="D5">
-        <v>13.13622469639823</v>
+        <v>8.32223775840543</v>
       </c>
       <c r="E5">
-        <v>12.93076217482463</v>
+        <v>7.998448455374222</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>74.17207579934413</v>
+        <v>64.17768668486143</v>
       </c>
       <c r="H5">
-        <v>25.48022837630806</v>
+        <v>18.77549733085063</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.981357030795324</v>
+        <v>5.26035732009662</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.88123317578185</v>
+        <v>7.447081210561142</v>
       </c>
       <c r="M5">
-        <v>21.0070659709687</v>
+        <v>13.05508895875566</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.90350562949735</v>
+        <v>18.84716752971459</v>
       </c>
       <c r="C6">
-        <v>5.039581367455261</v>
+        <v>9.536423044543653</v>
       </c>
       <c r="D6">
-        <v>13.13691913320627</v>
+        <v>8.318074977646003</v>
       </c>
       <c r="E6">
-        <v>12.93153080219508</v>
+        <v>8.000026793788111</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>74.15526130152659</v>
+        <v>64.07668927981129</v>
       </c>
       <c r="H6">
-        <v>25.47939881192441</v>
+        <v>18.75983425713088</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.980871625100495</v>
+        <v>5.258910554722447</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.88234116366457</v>
+        <v>7.444642369885073</v>
       </c>
       <c r="M6">
-        <v>21.00758369260461</v>
+        <v>13.0374794033714</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.94442014833068</v>
+        <v>19.20829210410125</v>
       </c>
       <c r="C7">
-        <v>5.156917379068691</v>
+        <v>9.750669951247144</v>
       </c>
       <c r="D7">
-        <v>13.13227271978826</v>
+        <v>8.347351596075384</v>
       </c>
       <c r="E7">
-        <v>12.92625804276062</v>
+        <v>7.989201405238903</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>74.27322796314641</v>
+        <v>64.77909598552299</v>
       </c>
       <c r="H7">
-        <v>25.48551637812906</v>
+        <v>18.86938473059202</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.984220338715878</v>
+        <v>5.268937485962723</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.87481797890877</v>
+        <v>7.461924271963792</v>
       </c>
       <c r="M7">
-        <v>21.00439148345496</v>
+        <v>13.16012179354715</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.14035857147844</v>
+        <v>20.76281448006482</v>
       </c>
       <c r="C8">
-        <v>5.644124698772803</v>
+        <v>10.65191544371762</v>
       </c>
       <c r="D8">
-        <v>13.1160703413765</v>
+        <v>8.486161421068559</v>
       </c>
       <c r="E8">
-        <v>12.9045314756711</v>
+        <v>7.944682347250771</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>74.82447708463465</v>
+        <v>67.90990991730649</v>
       </c>
       <c r="H8">
-        <v>25.5214070452451</v>
+        <v>19.37364082248117</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.998490614741055</v>
+        <v>5.312863694500568</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.84576336657354</v>
+        <v>7.547094422859995</v>
       </c>
       <c r="M8">
-        <v>21.00022907388324</v>
+        <v>13.71079625795792</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.57735017718058</v>
+        <v>23.65601193452138</v>
       </c>
       <c r="C9">
-        <v>6.489866260906155</v>
+        <v>12.26465762330348</v>
       </c>
       <c r="D9">
-        <v>13.0997711687028</v>
+        <v>8.794481967849652</v>
       </c>
       <c r="E9">
-        <v>12.86744519551905</v>
+        <v>7.869438285065189</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>76.01169102866308</v>
+        <v>74.1419156773925</v>
       </c>
       <c r="H9">
-        <v>25.62371578607842</v>
+        <v>20.44013097277275</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.02466502767207</v>
+        <v>5.398459883953826</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.80367511915081</v>
+        <v>7.7476798936885</v>
       </c>
       <c r="M9">
-        <v>21.02762848448976</v>
+        <v>14.8187169462122</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.92802262914608</v>
+        <v>25.68096450432882</v>
       </c>
       <c r="C10">
-        <v>7.044738213595683</v>
+        <v>13.36074689533067</v>
       </c>
       <c r="D10">
-        <v>13.09723774321103</v>
+        <v>9.044625781845578</v>
       </c>
       <c r="E10">
-        <v>12.84354506327334</v>
+        <v>7.821922329510844</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>76.94458816511697</v>
+        <v>78.76941767808508</v>
       </c>
       <c r="H10">
-        <v>25.71826697682717</v>
+        <v>21.27446359132493</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.042804822911041</v>
+        <v>5.461694337341406</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.78182325191669</v>
+        <v>7.91707704784003</v>
       </c>
       <c r="M10">
-        <v>21.06930239910744</v>
+        <v>15.64602198415253</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.09339176643983</v>
+        <v>26.66196142915332</v>
       </c>
       <c r="C11">
-        <v>7.28282652241221</v>
+        <v>13.84164451762898</v>
       </c>
       <c r="D11">
-        <v>13.09813508705647</v>
+        <v>9.163966457651011</v>
       </c>
       <c r="E11">
-        <v>12.83339537729845</v>
+        <v>7.802103358353557</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>77.38118393314826</v>
+        <v>80.88631225793522</v>
       </c>
       <c r="H11">
-        <v>25.76546049787838</v>
+        <v>21.666101457002</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.05082303326634</v>
+        <v>5.490715610383583</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.7738497592155</v>
+        <v>7.999311137661818</v>
       </c>
       <c r="M11">
-        <v>21.09289811898239</v>
+        <v>16.02491978609308</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.15680106452997</v>
+        <v>27.03136433546425</v>
       </c>
       <c r="C12">
-        <v>7.37093308997505</v>
+        <v>14.02135326971253</v>
       </c>
       <c r="D12">
-        <v>13.0987693780917</v>
+        <v>9.209996528592798</v>
       </c>
       <c r="E12">
-        <v>12.82965558807069</v>
+        <v>7.794867846038524</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>77.54817929754529</v>
+        <v>81.68991986200858</v>
       </c>
       <c r="H12">
-        <v>25.78392904531465</v>
+        <v>21.81625871551402</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.053825913671881</v>
+        <v>5.501759494421107</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.77111298228993</v>
+        <v>8.031232102984857</v>
       </c>
       <c r="M12">
-        <v>21.10249565311837</v>
+        <v>16.16877001147454</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.14311056948463</v>
+        <v>26.95201126574187</v>
       </c>
       <c r="C13">
-        <v>7.352048912156238</v>
+        <v>13.98275370698905</v>
       </c>
       <c r="D13">
-        <v>13.09861968044745</v>
+        <v>9.200045119362956</v>
       </c>
       <c r="E13">
-        <v>12.83045641122644</v>
+        <v>7.796413959925751</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>77.51214124144296</v>
+        <v>81.51675378846376</v>
       </c>
       <c r="H13">
-        <v>25.77992501377348</v>
+        <v>21.78383515786126</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.053180674434447</v>
+        <v>5.499378282278812</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.77168983142315</v>
+        <v>8.024321987026411</v>
       </c>
       <c r="M13">
-        <v>21.10039927385506</v>
+        <v>16.13777247296427</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.09859301215774</v>
+        <v>26.69244495372645</v>
       </c>
       <c r="C14">
-        <v>7.290116187795916</v>
+        <v>13.8564763482515</v>
       </c>
       <c r="D14">
-        <v>13.09818137061056</v>
+        <v>9.167736319464053</v>
       </c>
       <c r="E14">
-        <v>12.83308562607687</v>
+        <v>7.80150261685571</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>77.39488988438208</v>
+        <v>80.95238346484244</v>
       </c>
       <c r="H14">
-        <v>25.76696796873929</v>
+        <v>21.67841710649256</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.051070751350851</v>
+        <v>5.491623002911245</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.7736189405714</v>
+        <v>8.001921418746202</v>
       </c>
       <c r="M14">
-        <v>21.09367446791527</v>
+        <v>16.03674689441233</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.07142569059981</v>
+        <v>26.53284984158864</v>
       </c>
       <c r="C15">
-        <v>7.251913573798601</v>
+        <v>13.77882058490287</v>
       </c>
       <c r="D15">
-        <v>13.09795123382744</v>
+        <v>9.148056749778155</v>
       </c>
       <c r="E15">
-        <v>12.83470959098441</v>
+        <v>7.804655025022433</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>77.32328425743853</v>
+        <v>80.60696047818764</v>
       </c>
       <c r="H15">
-        <v>25.75910907389678</v>
+        <v>21.61409060636138</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.049774012178778</v>
+        <v>5.486880284390154</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.77483737179894</v>
+        <v>7.988303274732375</v>
       </c>
       <c r="M15">
-        <v>21.0896414406572</v>
+        <v>15.97491457403677</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.91732850519333</v>
+        <v>25.62175019469853</v>
       </c>
       <c r="C16">
-        <v>7.028890958034703</v>
+        <v>13.32897495326635</v>
       </c>
       <c r="D16">
-        <v>13.0972203264379</v>
+        <v>9.036941539521091</v>
       </c>
       <c r="E16">
-        <v>12.84422288976637</v>
+        <v>7.823254610736067</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>76.9162937588648</v>
+        <v>78.63133189777264</v>
       </c>
       <c r="H16">
-        <v>25.71526659376244</v>
+        <v>21.24912156792567</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.042276125587708</v>
+        <v>5.459804301889513</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.78238390043006</v>
+        <v>7.911809989669714</v>
       </c>
       <c r="M16">
-        <v>21.06785331315367</v>
+        <v>15.62131104834131</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.82425497241596</v>
+        <v>25.10039796586849</v>
       </c>
       <c r="C17">
-        <v>6.888409936568146</v>
+        <v>13.04857137407887</v>
       </c>
       <c r="D17">
-        <v>13.09729678729941</v>
+        <v>8.97022375035575</v>
       </c>
       <c r="E17">
-        <v>12.85024389978049</v>
+        <v>7.835132373664852</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.66968379211507</v>
+        <v>77.42252348342541</v>
       </c>
       <c r="H17">
-        <v>25.68943908880969</v>
+        <v>21.0283947896593</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.03761667958209</v>
+        <v>5.443271124446828</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.78751709831382</v>
+        <v>7.866233573546165</v>
       </c>
       <c r="M17">
-        <v>21.05567183465306</v>
+        <v>15.4050332434005</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.77127511988043</v>
+        <v>24.79848284892561</v>
       </c>
       <c r="C18">
-        <v>6.806260057885616</v>
+        <v>12.88561249219382</v>
       </c>
       <c r="D18">
-        <v>13.09753372755231</v>
+        <v>8.932368949651416</v>
       </c>
       <c r="E18">
-        <v>12.85377505413886</v>
+        <v>7.842132460018321</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.52899577834226</v>
+        <v>76.7283341115901</v>
       </c>
       <c r="H18">
-        <v>25.67497767028364</v>
+        <v>20.90256882039008</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.034914685446513</v>
+        <v>5.433784554867351</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.79065474243205</v>
+        <v>7.840503803795848</v>
       </c>
       <c r="M18">
-        <v>21.04910223854344</v>
+        <v>15.28087433729045</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.75343372483684</v>
+        <v>24.69590607846786</v>
       </c>
       <c r="C19">
-        <v>6.778213618895842</v>
+        <v>12.83014495601383</v>
       </c>
       <c r="D19">
-        <v>13.09764709923838</v>
+        <v>8.919640073409203</v>
       </c>
       <c r="E19">
-        <v>12.85498233346841</v>
+        <v>7.844531162295248</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.48156239771855</v>
+        <v>76.49347406687616</v>
       </c>
       <c r="H19">
-        <v>25.67014904105395</v>
+        <v>20.86015742988268</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.033996052571277</v>
+        <v>5.430576005202932</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.79174890353647</v>
+        <v>7.831874341857288</v>
       </c>
       <c r="M19">
-        <v>21.04695304902863</v>
+        <v>15.23887760030597</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.83410589553498</v>
+        <v>25.15610816714144</v>
       </c>
       <c r="C20">
-        <v>6.903503934240388</v>
+        <v>13.07859347530406</v>
       </c>
       <c r="D20">
-        <v>13.09726867868725</v>
+        <v>8.977271936060422</v>
       </c>
       <c r="E20">
-        <v>12.84959591397972</v>
+        <v>7.833850470168315</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.69581689781691</v>
+        <v>77.55108937629754</v>
       </c>
       <c r="H20">
-        <v>25.69214773232218</v>
+        <v>21.05177382676626</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.038114961736387</v>
+        <v>5.445028623808217</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.78695149842241</v>
+        <v>7.871034860446439</v>
       </c>
       <c r="M20">
-        <v>21.05692339107955</v>
+        <v>15.42803178923965</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.11164795294538</v>
+        <v>26.76881111128996</v>
       </c>
       <c r="C21">
-        <v>7.308362964880448</v>
+        <v>13.89363079315768</v>
       </c>
       <c r="D21">
-        <v>13.09830212333591</v>
+        <v>9.177203085483233</v>
       </c>
       <c r="E21">
-        <v>12.83231055003013</v>
+        <v>7.800000542895244</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>77.42928497455866</v>
+        <v>81.11809564651911</v>
       </c>
       <c r="H21">
-        <v>25.77075758863175</v>
+        <v>21.70932962105138</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.051691393231868</v>
+        <v>5.493899294860717</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.77304464667763</v>
+        <v>8.008479501226509</v>
       </c>
       <c r="M21">
-        <v>21.09563177009966</v>
+        <v>16.06641034529789</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.29760290042686</v>
+        <v>27.83556822416615</v>
       </c>
       <c r="C22">
-        <v>7.561003290439921</v>
+        <v>14.41242264981111</v>
       </c>
       <c r="D22">
-        <v>13.10069381944483</v>
+        <v>9.312780699032681</v>
       </c>
       <c r="E22">
-        <v>12.82161776620019</v>
+        <v>7.779455028690919</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>77.9183152123628</v>
+        <v>83.46118015692272</v>
       </c>
       <c r="H22">
-        <v>25.82561341779677</v>
+        <v>22.14995281469915</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.060369525771922</v>
+        <v>5.526164841486414</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.76560283958963</v>
+        <v>8.102879328666015</v>
       </c>
       <c r="M22">
-        <v>21.12478805018267</v>
+        <v>16.4858070879297</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.19795542024892</v>
+        <v>27.26861989932125</v>
       </c>
       <c r="C23">
-        <v>7.427255899641351</v>
+        <v>14.1367475639728</v>
       </c>
       <c r="D23">
-        <v>13.09926040793054</v>
+        <v>9.239955617236394</v>
       </c>
       <c r="E23">
-        <v>12.82726949784202</v>
+        <v>7.790272058595852</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>77.65645691583745</v>
+        <v>82.20940598159025</v>
       </c>
       <c r="H23">
-        <v>25.79601889799558</v>
+        <v>21.91374381201447</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.055755619014866</v>
+        <v>5.508907846476848</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.76942405531824</v>
+        <v>8.052064421977501</v>
       </c>
       <c r="M23">
-        <v>21.10887544843546</v>
+        <v>16.2617587499794</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.82965064033877</v>
+        <v>25.13092839061791</v>
       </c>
       <c r="C24">
-        <v>6.896684253895143</v>
+        <v>13.06502594882049</v>
       </c>
       <c r="D24">
-        <v>13.09728078547579</v>
+        <v>8.974083890178232</v>
       </c>
       <c r="E24">
-        <v>12.84988865156802</v>
+        <v>7.834429485681377</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.68399871461224</v>
+        <v>77.49296235478876</v>
       </c>
       <c r="H24">
-        <v>25.69092194838743</v>
+        <v>21.041200830735</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.037889760700926</v>
+        <v>5.444234001769577</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.78720662520837</v>
+        <v>7.868862728916283</v>
       </c>
       <c r="M24">
-        <v>21.0563562112043</v>
+        <v>15.4176335793128</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.45373746117221</v>
+        <v>22.89083800330859</v>
       </c>
       <c r="C25">
-        <v>6.272778967503808</v>
+        <v>11.8444183597627</v>
       </c>
       <c r="D25">
-        <v>13.10252265563108</v>
+        <v>8.707050226661831</v>
       </c>
       <c r="E25">
-        <v>12.87688895818002</v>
+        <v>7.888463542475783</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>75.67955040661319</v>
+        <v>72.44730918685799</v>
       </c>
       <c r="H25">
-        <v>25.59262610758604</v>
+        <v>20.14299190367639</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.017776576460728</v>
+        <v>5.375297227717621</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.81346765113817</v>
+        <v>7.689668060557075</v>
       </c>
       <c r="M25">
-        <v>21.01642077594322</v>
+        <v>14.51645504375393</v>
       </c>
       <c r="N25">
         <v>0</v>
